--- a/DesignerConfigs/Datas/PayRegion.xlsx
+++ b/DesignerConfigs/Datas/PayRegion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>lang</t>
   </si>
   <si>
+    <t>NANP</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>语言</t>
+  </si>
+  <si>
+    <t>国际长途电话区号</t>
   </si>
   <si>
     <t>US</t>
@@ -239,7 +245,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,12 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -750,137 +762,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +900,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,20 +1214,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="25.2166666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1253,12 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,36 +1269,40 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1287,45 +1311,49 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -1334,21 +1362,24 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -1357,21 +1388,24 @@
         <v>1.4</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1380,21 +1414,24 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -1403,21 +1440,24 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1426,21 +1466,24 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -1449,21 +1492,24 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1472,21 +1518,24 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1495,21 +1544,24 @@
         <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -1518,21 +1570,24 @@
         <v>1.5</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="4">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1541,21 +1596,24 @@
         <v>1500</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>52</v>
+      </c>
+      <c r="I15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1564,21 +1622,24 @@
         <v>15000</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1587,21 +1648,24 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1610,21 +1674,24 @@
         <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>61</v>
+      </c>
+      <c r="I18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1633,21 +1700,24 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>64</v>
+      </c>
+      <c r="I19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1656,7 +1726,10 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/PayRegion.xlsx
+++ b/DesignerConfigs/Datas/PayRegion.xlsx
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
